--- a/Code/Results/Cases/Case_3_246/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_246/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9994600939906824</v>
+        <v>1.030041153708001</v>
       </c>
       <c r="D2">
-        <v>1.02410784555594</v>
+        <v>1.040561006008125</v>
       </c>
       <c r="E2">
-        <v>1.005961515642792</v>
+        <v>1.029795012411994</v>
       </c>
       <c r="F2">
-        <v>1.03068486415875</v>
+        <v>1.051298934084347</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050019883411363</v>
+        <v>1.037348532801631</v>
       </c>
       <c r="J2">
-        <v>1.021656965555237</v>
+        <v>1.03518459254792</v>
       </c>
       <c r="K2">
-        <v>1.035241233798271</v>
+        <v>1.043343005981962</v>
       </c>
       <c r="L2">
-        <v>1.01733841720675</v>
+        <v>1.03260788800209</v>
       </c>
       <c r="M2">
-        <v>1.041732642088785</v>
+        <v>1.054050822061252</v>
       </c>
       <c r="N2">
-        <v>1.023107835632017</v>
+        <v>1.036654673406671</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004215958112088</v>
+        <v>1.031038494719884</v>
       </c>
       <c r="D3">
-        <v>1.027844688938324</v>
+        <v>1.041353055835113</v>
       </c>
       <c r="E3">
-        <v>1.00977185941929</v>
+        <v>1.030643014995211</v>
       </c>
       <c r="F3">
-        <v>1.03504768760834</v>
+        <v>1.052246401872528</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051526318806803</v>
+        <v>1.037574045068964</v>
       </c>
       <c r="J3">
-        <v>1.024592347970965</v>
+        <v>1.035822975720883</v>
       </c>
       <c r="K3">
-        <v>1.038133269160806</v>
+        <v>1.043945552700262</v>
       </c>
       <c r="L3">
-        <v>1.020281215841277</v>
+        <v>1.033264003739008</v>
       </c>
       <c r="M3">
-        <v>1.045250937185351</v>
+        <v>1.054810561386808</v>
       </c>
       <c r="N3">
-        <v>1.026047386627469</v>
+        <v>1.037293963156962</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007227722597242</v>
+        <v>1.031684092038213</v>
       </c>
       <c r="D4">
-        <v>1.03021142884086</v>
+        <v>1.041865413140153</v>
       </c>
       <c r="E4">
-        <v>1.01219103569206</v>
+        <v>1.031192330605814</v>
       </c>
       <c r="F4">
-        <v>1.03781266714518</v>
+        <v>1.052859602128239</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052466095045773</v>
+        <v>1.037718256148537</v>
       </c>
       <c r="J4">
-        <v>1.026448332253696</v>
+        <v>1.036235721652386</v>
       </c>
       <c r="K4">
-        <v>1.039958405216958</v>
+        <v>1.044334634746721</v>
       </c>
       <c r="L4">
-        <v>1.022144519024442</v>
+        <v>1.033688514516682</v>
       </c>
       <c r="M4">
-        <v>1.047475179940437</v>
+        <v>1.055301665217269</v>
       </c>
       <c r="N4">
-        <v>1.027906006620765</v>
+        <v>1.037707295235031</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008478748012546</v>
+        <v>1.031955560741703</v>
       </c>
       <c r="D5">
-        <v>1.031194534261503</v>
+        <v>1.042080770689293</v>
       </c>
       <c r="E5">
-        <v>1.013197348038376</v>
+        <v>1.031423405815694</v>
       </c>
       <c r="F5">
-        <v>1.038961635842209</v>
+        <v>1.053117420422063</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05285299610542</v>
+        <v>1.037778472446761</v>
       </c>
       <c r="J5">
-        <v>1.027218532756153</v>
+        <v>1.036409160176023</v>
       </c>
       <c r="K5">
-        <v>1.040714961565602</v>
+        <v>1.044498011037773</v>
       </c>
       <c r="L5">
-        <v>1.022918386918577</v>
+        <v>1.033866968510776</v>
       </c>
       <c r="M5">
-        <v>1.048398115880796</v>
+        <v>1.055508005000181</v>
       </c>
       <c r="N5">
-        <v>1.028677300896279</v>
+        <v>1.037880980061265</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008687930418394</v>
+        <v>1.03200114501155</v>
       </c>
       <c r="D6">
-        <v>1.031358916962537</v>
+        <v>1.042116927940622</v>
       </c>
       <c r="E6">
-        <v>1.013365695334029</v>
+        <v>1.031462212712136</v>
       </c>
       <c r="F6">
-        <v>1.039153778515101</v>
+        <v>1.053160710911756</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052917484248292</v>
+        <v>1.037788558967006</v>
       </c>
       <c r="J6">
-        <v>1.027347272599453</v>
+        <v>1.036438276563449</v>
       </c>
       <c r="K6">
-        <v>1.040841370730963</v>
+        <v>1.04452543124654</v>
       </c>
       <c r="L6">
-        <v>1.023047776805879</v>
+        <v>1.033896931093152</v>
       </c>
       <c r="M6">
-        <v>1.048552380263018</v>
+        <v>1.05554264327686</v>
       </c>
       <c r="N6">
-        <v>1.028806223564924</v>
+        <v>1.037910137797301</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007244497522227</v>
+        <v>1.031687719182785</v>
       </c>
       <c r="D7">
-        <v>1.030224611281527</v>
+        <v>1.041868290906854</v>
       </c>
       <c r="E7">
-        <v>1.01220452366244</v>
+        <v>1.031195417683745</v>
       </c>
       <c r="F7">
-        <v>1.037828071880517</v>
+        <v>1.052863046996678</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05247129673034</v>
+        <v>1.037719062373543</v>
       </c>
       <c r="J7">
-        <v>1.026458662788691</v>
+        <v>1.036238039461134</v>
       </c>
       <c r="K7">
-        <v>1.039968556099254</v>
+        <v>1.044336818551302</v>
       </c>
       <c r="L7">
-        <v>1.022154896259262</v>
+        <v>1.033690899069269</v>
       </c>
       <c r="M7">
-        <v>1.047487559435835</v>
+        <v>1.055304422813343</v>
       </c>
       <c r="N7">
-        <v>1.027916351826305</v>
+        <v>1.037709616335333</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001081304512049</v>
+        <v>1.030378157503618</v>
       </c>
       <c r="D8">
-        <v>1.02538158592708</v>
+        <v>1.040828713748269</v>
       </c>
       <c r="E8">
-        <v>1.007259082996576</v>
+        <v>1.030081473759513</v>
       </c>
       <c r="F8">
-        <v>1.032171613509069</v>
+        <v>1.051619108681457</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050536355919074</v>
+        <v>1.037425099551362</v>
       </c>
       <c r="J8">
-        <v>1.022658186855279</v>
+        <v>1.035400405175381</v>
       </c>
       <c r="K8">
-        <v>1.036228382212098</v>
+        <v>1.043546805838569</v>
       </c>
       <c r="L8">
-        <v>1.018341615065389</v>
+        <v>1.032829633205019</v>
       </c>
       <c r="M8">
-        <v>1.042932744197073</v>
+        <v>1.054307682121452</v>
       </c>
       <c r="N8">
-        <v>1.024110478781147</v>
+        <v>1.036870792512817</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.989690665594564</v>
+        <v>1.028072486403439</v>
       </c>
       <c r="D9">
-        <v>1.01643613960512</v>
+        <v>1.0389957306675</v>
       </c>
       <c r="E9">
-        <v>0.9981707621178305</v>
+        <v>1.028123211270656</v>
       </c>
       <c r="F9">
-        <v>1.02173710290639</v>
+        <v>1.049428136715575</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046849424083363</v>
+        <v>1.03689402392522</v>
       </c>
       <c r="J9">
-        <v>1.015612800182143</v>
+        <v>1.033921884738602</v>
       </c>
       <c r="K9">
-        <v>1.029268063809551</v>
+        <v>1.042148566855685</v>
       </c>
       <c r="L9">
-        <v>1.011293587312526</v>
+        <v>1.03131170007743</v>
       </c>
       <c r="M9">
-        <v>1.034487087336249</v>
+        <v>1.052547523539786</v>
       </c>
       <c r="N9">
-        <v>1.017055086850819</v>
+        <v>1.035390172407429</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9816985732012499</v>
+        <v>1.026536705988622</v>
       </c>
       <c r="D10">
-        <v>1.010167645327196</v>
+        <v>1.037773055172883</v>
       </c>
       <c r="E10">
-        <v>0.9918326789145645</v>
+        <v>1.026820886953248</v>
       </c>
       <c r="F10">
-        <v>1.014433196403353</v>
+        <v>1.047968226764966</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04419100557303</v>
+        <v>1.036531214020423</v>
       </c>
       <c r="J10">
-        <v>1.010657608653125</v>
+        <v>1.032934562289053</v>
       </c>
       <c r="K10">
-        <v>1.024355714836707</v>
+        <v>1.041212330768326</v>
       </c>
       <c r="L10">
-        <v>1.006350979445652</v>
+        <v>1.030299605216342</v>
       </c>
       <c r="M10">
-        <v>1.028546654866649</v>
+        <v>1.051371602279449</v>
       </c>
       <c r="N10">
-        <v>1.012092858381461</v>
+        <v>1.034401447846754</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9781332222259729</v>
+        <v>1.025872017280631</v>
       </c>
       <c r="D11">
-        <v>1.00737413734828</v>
+        <v>1.037243473066521</v>
       </c>
       <c r="E11">
-        <v>0.9890152224764202</v>
+        <v>1.026257733179794</v>
       </c>
       <c r="F11">
-        <v>1.011179936275508</v>
+        <v>1.0473362570096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042988912846433</v>
+        <v>1.036372042058834</v>
       </c>
       <c r="J11">
-        <v>1.008444853109183</v>
+        <v>1.032506659199191</v>
       </c>
       <c r="K11">
-        <v>1.022158315352815</v>
+        <v>1.040805972973202</v>
       </c>
       <c r="L11">
-        <v>1.004147312010152</v>
+        <v>1.029861332705592</v>
       </c>
       <c r="M11">
-        <v>1.025894050895858</v>
+        <v>1.050861837726298</v>
       </c>
       <c r="N11">
-        <v>1.00987696047084</v>
+        <v>1.033972937085423</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9767922121416277</v>
+        <v>1.025625169822423</v>
       </c>
       <c r="D12">
-        <v>1.006323969015797</v>
+        <v>1.03704674029037</v>
       </c>
       <c r="E12">
-        <v>0.9879570969886953</v>
+        <v>1.026048668068286</v>
       </c>
       <c r="F12">
-        <v>1.009957162897972</v>
+        <v>1.047101543399691</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042534425943912</v>
+        <v>1.036312607535184</v>
       </c>
       <c r="J12">
-        <v>1.007612311332805</v>
+        <v>1.03234765953171</v>
       </c>
       <c r="K12">
-        <v>1.021331006445389</v>
+        <v>1.040654889873658</v>
       </c>
       <c r="L12">
-        <v>1.003318715066681</v>
+        <v>1.029698535118273</v>
       </c>
       <c r="M12">
-        <v>1.024896053739137</v>
+        <v>1.05067240172211</v>
       </c>
       <c r="N12">
-        <v>1.009043236389645</v>
+        <v>1.033813711620177</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9770806341632035</v>
+        <v>1.025678117284858</v>
       </c>
       <c r="D13">
-        <v>1.006549811634777</v>
+        <v>1.037088941136947</v>
       </c>
       <c r="E13">
-        <v>0.9881846038242437</v>
+        <v>1.026093508013479</v>
       </c>
       <c r="F13">
-        <v>1.01022011480837</v>
+        <v>1.047151888979661</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042632281214953</v>
+        <v>1.036325370507005</v>
       </c>
       <c r="J13">
-        <v>1.007791384346427</v>
+        <v>1.032381768088678</v>
       </c>
       <c r="K13">
-        <v>1.021508978152306</v>
+        <v>1.040687304203598</v>
       </c>
       <c r="L13">
-        <v>1.003496915766532</v>
+        <v>1.02973345590859</v>
       </c>
       <c r="M13">
-        <v>1.025110712919709</v>
+        <v>1.050713040300639</v>
       </c>
       <c r="N13">
-        <v>1.009222563707487</v>
+        <v>1.033847868615208</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9780227199125604</v>
+        <v>1.025851611821552</v>
       </c>
       <c r="D14">
-        <v>1.007287589654368</v>
+        <v>1.037227211525294</v>
       </c>
       <c r="E14">
-        <v>0.9889279978428824</v>
+        <v>1.02624044943567</v>
       </c>
       <c r="F14">
-        <v>1.011079159093795</v>
+        <v>1.047316854930937</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042951509444826</v>
+        <v>1.03636713552363</v>
       </c>
       <c r="J14">
-        <v>1.008376254982523</v>
+        <v>1.032493517404837</v>
       </c>
       <c r="K14">
-        <v>1.022090159330745</v>
+        <v>1.040793487324802</v>
       </c>
       <c r="L14">
-        <v>1.004079028218815</v>
+        <v>1.02984787587716</v>
       </c>
       <c r="M14">
-        <v>1.025811819057382</v>
+        <v>1.050846180652077</v>
       </c>
       <c r="N14">
-        <v>1.009808264926971</v>
+        <v>1.033959776628214</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9786009302296171</v>
+        <v>1.025958513837826</v>
       </c>
       <c r="D15">
-        <v>1.007740478243939</v>
+        <v>1.037312401535394</v>
       </c>
       <c r="E15">
-        <v>0.9893844712678248</v>
+        <v>1.026331000197566</v>
       </c>
       <c r="F15">
-        <v>1.011606517310082</v>
+        <v>1.04741849964847</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043147129695918</v>
+        <v>1.036392827135867</v>
       </c>
       <c r="J15">
-        <v>1.008735188187738</v>
+        <v>1.032562362256911</v>
       </c>
       <c r="K15">
-        <v>1.022446757204866</v>
+        <v>1.040858891227165</v>
       </c>
       <c r="L15">
-        <v>1.004436338129699</v>
+        <v>1.029918373330423</v>
       </c>
       <c r="M15">
-        <v>1.026242090956299</v>
+        <v>1.050928201345792</v>
       </c>
       <c r="N15">
-        <v>1.010167707858509</v>
+        <v>1.034028719247874</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9819329082588075</v>
+        <v>1.026580825837243</v>
       </c>
       <c r="D16">
-        <v>1.010351319272591</v>
+        <v>1.037808198598585</v>
       </c>
       <c r="E16">
-        <v>0.9920180733070041</v>
+        <v>1.026858277730478</v>
       </c>
       <c r="F16">
-        <v>1.014647132264205</v>
+        <v>1.048010172405945</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044269683895523</v>
+        <v>1.036541734105156</v>
       </c>
       <c r="J16">
-        <v>1.010803002432247</v>
+        <v>1.032962952725614</v>
       </c>
       <c r="K16">
-        <v>1.024500022911812</v>
+        <v>1.041239279202746</v>
       </c>
       <c r="L16">
-        <v>1.006495848615178</v>
+        <v>1.030328691369772</v>
       </c>
       <c r="M16">
-        <v>1.028720953759487</v>
+        <v>1.05140542146332</v>
       </c>
       <c r="N16">
-        <v>1.012238458636425</v>
+        <v>1.034429878600991</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9839942869760729</v>
+        <v>1.026971270081556</v>
       </c>
       <c r="D17">
-        <v>1.011967390588258</v>
+        <v>1.038119158037199</v>
       </c>
       <c r="E17">
-        <v>0.9936500839714512</v>
+        <v>1.027189229444569</v>
       </c>
       <c r="F17">
-        <v>1.016529653431458</v>
+        <v>1.048381362174042</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044959967210975</v>
+        <v>1.036634584867682</v>
       </c>
       <c r="J17">
-        <v>1.012081746898042</v>
+        <v>1.03321412962092</v>
       </c>
       <c r="K17">
-        <v>1.025768792088377</v>
+        <v>1.041477629645745</v>
       </c>
       <c r="L17">
-        <v>1.007770373859036</v>
+        <v>1.030586065801348</v>
       </c>
       <c r="M17">
-        <v>1.030253935047938</v>
+        <v>1.051704613560073</v>
       </c>
       <c r="N17">
-        <v>1.013519019066036</v>
+        <v>1.034681412196299</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9851866177842918</v>
+        <v>1.027199039913416</v>
       </c>
       <c r="D18">
-        <v>1.012902420428521</v>
+        <v>1.038300520343947</v>
       </c>
       <c r="E18">
-        <v>0.9945950069632924</v>
+        <v>1.027382341369187</v>
       </c>
       <c r="F18">
-        <v>1.017619006311423</v>
+        <v>1.048597888277313</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045357701588168</v>
+        <v>1.036688543113353</v>
       </c>
       <c r="J18">
-        <v>1.012821178948084</v>
+        <v>1.033360599576804</v>
       </c>
       <c r="K18">
-        <v>1.026502096791306</v>
+        <v>1.041616562618429</v>
       </c>
       <c r="L18">
-        <v>1.008507694436826</v>
+        <v>1.03073618513423</v>
       </c>
       <c r="M18">
-        <v>1.031140388631185</v>
+        <v>1.051879070953206</v>
       </c>
       <c r="N18">
-        <v>1.014259501194403</v>
+        <v>1.034828090156321</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9855914969863645</v>
+        <v>1.027276708672073</v>
       </c>
       <c r="D19">
-        <v>1.013219971350769</v>
+        <v>1.038362357617618</v>
       </c>
       <c r="E19">
-        <v>0.9949160320160705</v>
+        <v>1.027448199965497</v>
       </c>
       <c r="F19">
-        <v>1.017988995516248</v>
+        <v>1.048671721004869</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045492497495512</v>
+        <v>1.03670690753769</v>
       </c>
       <c r="J19">
-        <v>1.013072229957334</v>
+        <v>1.033410535706109</v>
       </c>
       <c r="K19">
-        <v>1.026751005876991</v>
+        <v>1.041663919408027</v>
       </c>
       <c r="L19">
-        <v>1.008758084128124</v>
+        <v>1.030787371449184</v>
       </c>
       <c r="M19">
-        <v>1.031441357262525</v>
+        <v>1.051938546842257</v>
       </c>
       <c r="N19">
-        <v>1.014510908724883</v>
+        <v>1.034878097200657</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9837741652842794</v>
+        <v>1.026929375971931</v>
       </c>
       <c r="D20">
-        <v>1.011794791687488</v>
+        <v>1.038085796584317</v>
       </c>
       <c r="E20">
-        <v>0.9934757132174884</v>
+        <v>1.027153713860173</v>
       </c>
       <c r="F20">
-        <v>1.016328580827296</v>
+        <v>1.048341535219213</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044886414997302</v>
+        <v>1.036624643546624</v>
       </c>
       <c r="J20">
-        <v>1.011945219409836</v>
+        <v>1.033187184568726</v>
       </c>
       <c r="K20">
-        <v>1.025633366746744</v>
+        <v>1.041452066493274</v>
       </c>
       <c r="L20">
-        <v>1.007634262744856</v>
+        <v>1.030558452247343</v>
       </c>
       <c r="M20">
-        <v>1.030090262386622</v>
+        <v>1.051672518896467</v>
       </c>
       <c r="N20">
-        <v>1.013382297693137</v>
+        <v>1.03465442887904</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9777457675585527</v>
+        <v>1.025800520690476</v>
       </c>
       <c r="D21">
-        <v>1.007070683779403</v>
+        <v>1.037186494952892</v>
       </c>
       <c r="E21">
-        <v>0.9887094122143709</v>
+        <v>1.026197175659861</v>
       </c>
       <c r="F21">
-        <v>1.010826594908218</v>
+        <v>1.047268275787012</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042857727533071</v>
+        <v>1.03635484534784</v>
       </c>
       <c r="J21">
-        <v>1.008204323032571</v>
+        <v>1.032460611596607</v>
       </c>
       <c r="K21">
-        <v>1.021919326760577</v>
+        <v>1.040762223003828</v>
       </c>
       <c r="L21">
-        <v>1.003907892585767</v>
+        <v>1.029814182144098</v>
       </c>
       <c r="M21">
-        <v>1.025605716696343</v>
+        <v>1.050806976525223</v>
       </c>
       <c r="N21">
-        <v>1.00963608881393</v>
+        <v>1.033926824089961</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.973858446081719</v>
+        <v>1.025091039673188</v>
       </c>
       <c r="D22">
-        <v>1.004027576266818</v>
+        <v>1.036620939187171</v>
       </c>
       <c r="E22">
-        <v>0.98564521046247</v>
+        <v>1.025596429516652</v>
       </c>
       <c r="F22">
-        <v>1.00728373656251</v>
+        <v>1.046593637989802</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041535889064435</v>
+        <v>1.0361834135598</v>
       </c>
       <c r="J22">
-        <v>1.005790496880027</v>
+        <v>1.032003454473855</v>
       </c>
       <c r="K22">
-        <v>1.019519666104156</v>
+        <v>1.040327659846969</v>
       </c>
       <c r="L22">
-        <v>1.001506504859565</v>
+        <v>1.02934620912286</v>
       </c>
       <c r="M22">
-        <v>1.022712269100728</v>
+        <v>1.050262274166825</v>
       </c>
       <c r="N22">
-        <v>1.007218834751379</v>
+        <v>1.033469017751658</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9759287214849371</v>
+        <v>1.025467122808535</v>
       </c>
       <c r="D23">
-        <v>1.005647917115785</v>
+        <v>1.036920762918247</v>
       </c>
       <c r="E23">
-        <v>0.9872762153741814</v>
+        <v>1.025914832851427</v>
       </c>
       <c r="F23">
-        <v>1.009170057772014</v>
+        <v>1.0469512604937</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042241123606231</v>
+        <v>1.036274463162343</v>
       </c>
       <c r="J23">
-        <v>1.007076158952089</v>
+        <v>1.032245833378226</v>
       </c>
       <c r="K23">
-        <v>1.020798073357922</v>
+        <v>1.040558108546093</v>
       </c>
       <c r="L23">
-        <v>1.002785251799288</v>
+        <v>1.029594292234682</v>
       </c>
       <c r="M23">
-        <v>1.024253361651973</v>
+        <v>1.05055107845821</v>
       </c>
       <c r="N23">
-        <v>1.008506322611051</v>
+        <v>1.033711740861875</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9838736597482357</v>
+        <v>1.026948306023024</v>
       </c>
       <c r="D24">
-        <v>1.011872805132732</v>
+        <v>1.03810087123546</v>
       </c>
       <c r="E24">
-        <v>0.9935545254458513</v>
+        <v>1.027169761597296</v>
       </c>
       <c r="F24">
-        <v>1.016419463681437</v>
+        <v>1.04835953125205</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044919665184091</v>
+        <v>1.036629136219763</v>
       </c>
       <c r="J24">
-        <v>1.01200693016068</v>
+        <v>1.033199359993152</v>
       </c>
       <c r="K24">
-        <v>1.025694580440335</v>
+        <v>1.041463617668294</v>
       </c>
       <c r="L24">
-        <v>1.007695784275753</v>
+        <v>1.030570929632509</v>
       </c>
       <c r="M24">
-        <v>1.030164242792598</v>
+        <v>1.051687021267405</v>
       </c>
       <c r="N24">
-        <v>1.013444096080325</v>
+        <v>1.034666621593966</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9927023849890181</v>
+        <v>1.028668324538738</v>
       </c>
       <c r="D25">
-        <v>1.018800298518108</v>
+        <v>1.039469726377461</v>
       </c>
       <c r="E25">
-        <v>1.0005673651967</v>
+        <v>1.028628912114196</v>
       </c>
       <c r="F25">
-        <v>1.02449334007977</v>
+        <v>1.049994429885613</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047836830391708</v>
+        <v>1.037032865939394</v>
       </c>
       <c r="J25">
-        <v>1.017477863829032</v>
+        <v>1.034304410065386</v>
       </c>
       <c r="K25">
-        <v>1.031113609531443</v>
+        <v>1.042510767239823</v>
       </c>
       <c r="L25">
-        <v>1.01315687993149</v>
+        <v>1.031704149954891</v>
       </c>
       <c r="M25">
-        <v>1.036722965176103</v>
+        <v>1.053003008260767</v>
       </c>
       <c r="N25">
-        <v>1.018922799102012</v>
+        <v>1.035773240964053</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_246/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_246/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.030041153708001</v>
+        <v>0.999460093990682</v>
       </c>
       <c r="D2">
-        <v>1.040561006008125</v>
+        <v>1.02410784555594</v>
       </c>
       <c r="E2">
-        <v>1.029795012411994</v>
+        <v>1.005961515642792</v>
       </c>
       <c r="F2">
-        <v>1.051298934084347</v>
+        <v>1.03068486415875</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037348532801631</v>
+        <v>1.050019883411362</v>
       </c>
       <c r="J2">
-        <v>1.03518459254792</v>
+        <v>1.021656965555236</v>
       </c>
       <c r="K2">
-        <v>1.043343005981962</v>
+        <v>1.03524123379827</v>
       </c>
       <c r="L2">
-        <v>1.03260788800209</v>
+        <v>1.017338417206749</v>
       </c>
       <c r="M2">
-        <v>1.054050822061252</v>
+        <v>1.041732642088784</v>
       </c>
       <c r="N2">
-        <v>1.036654673406671</v>
+        <v>1.023107835632017</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031038494719884</v>
+        <v>1.004215958112087</v>
       </c>
       <c r="D3">
-        <v>1.041353055835113</v>
+        <v>1.027844688938323</v>
       </c>
       <c r="E3">
-        <v>1.030643014995211</v>
+        <v>1.00977185941929</v>
       </c>
       <c r="F3">
-        <v>1.052246401872528</v>
+        <v>1.035047687608339</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037574045068964</v>
+        <v>1.051526318806802</v>
       </c>
       <c r="J3">
-        <v>1.035822975720883</v>
+        <v>1.024592347970964</v>
       </c>
       <c r="K3">
-        <v>1.043945552700262</v>
+        <v>1.038133269160805</v>
       </c>
       <c r="L3">
-        <v>1.033264003739008</v>
+        <v>1.020281215841276</v>
       </c>
       <c r="M3">
-        <v>1.054810561386808</v>
+        <v>1.045250937185351</v>
       </c>
       <c r="N3">
-        <v>1.037293963156962</v>
+        <v>1.026047386627468</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031684092038213</v>
+        <v>1.007227722597243</v>
       </c>
       <c r="D4">
-        <v>1.041865413140153</v>
+        <v>1.030211428840861</v>
       </c>
       <c r="E4">
-        <v>1.031192330605814</v>
+        <v>1.01219103569206</v>
       </c>
       <c r="F4">
-        <v>1.052859602128239</v>
+        <v>1.037812667145181</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037718256148537</v>
+        <v>1.052466095045774</v>
       </c>
       <c r="J4">
-        <v>1.036235721652386</v>
+        <v>1.026448332253697</v>
       </c>
       <c r="K4">
-        <v>1.044334634746721</v>
+        <v>1.039958405216958</v>
       </c>
       <c r="L4">
-        <v>1.033688514516682</v>
+        <v>1.022144519024443</v>
       </c>
       <c r="M4">
-        <v>1.055301665217269</v>
+        <v>1.047475179940438</v>
       </c>
       <c r="N4">
-        <v>1.037707295235031</v>
+        <v>1.027906006620766</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031955560741703</v>
+        <v>1.008478748012546</v>
       </c>
       <c r="D5">
-        <v>1.042080770689293</v>
+        <v>1.031194534261503</v>
       </c>
       <c r="E5">
-        <v>1.031423405815694</v>
+        <v>1.013197348038376</v>
       </c>
       <c r="F5">
-        <v>1.053117420422063</v>
+        <v>1.038961635842209</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037778472446761</v>
+        <v>1.05285299610542</v>
       </c>
       <c r="J5">
-        <v>1.036409160176023</v>
+        <v>1.027218532756154</v>
       </c>
       <c r="K5">
-        <v>1.044498011037773</v>
+        <v>1.040714961565602</v>
       </c>
       <c r="L5">
-        <v>1.033866968510776</v>
+        <v>1.022918386918577</v>
       </c>
       <c r="M5">
-        <v>1.055508005000181</v>
+        <v>1.048398115880796</v>
       </c>
       <c r="N5">
-        <v>1.037880980061265</v>
+        <v>1.02867730089628</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03200114501155</v>
+        <v>1.008687930418394</v>
       </c>
       <c r="D6">
-        <v>1.042116927940622</v>
+        <v>1.031358916962538</v>
       </c>
       <c r="E6">
-        <v>1.031462212712136</v>
+        <v>1.01336569533403</v>
       </c>
       <c r="F6">
-        <v>1.053160710911756</v>
+        <v>1.039153778515102</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037788558967006</v>
+        <v>1.052917484248292</v>
       </c>
       <c r="J6">
-        <v>1.036438276563449</v>
+        <v>1.027347272599454</v>
       </c>
       <c r="K6">
-        <v>1.04452543124654</v>
+        <v>1.040841370730964</v>
       </c>
       <c r="L6">
-        <v>1.033896931093152</v>
+        <v>1.02304777680588</v>
       </c>
       <c r="M6">
-        <v>1.05554264327686</v>
+        <v>1.048552380263019</v>
       </c>
       <c r="N6">
-        <v>1.037910137797301</v>
+        <v>1.028806223564924</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031687719182785</v>
+        <v>1.007244497522227</v>
       </c>
       <c r="D7">
-        <v>1.041868290906854</v>
+        <v>1.030224611281527</v>
       </c>
       <c r="E7">
-        <v>1.031195417683745</v>
+        <v>1.01220452366244</v>
       </c>
       <c r="F7">
-        <v>1.052863046996678</v>
+        <v>1.037828071880517</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037719062373543</v>
+        <v>1.05247129673034</v>
       </c>
       <c r="J7">
-        <v>1.036238039461134</v>
+        <v>1.026458662788691</v>
       </c>
       <c r="K7">
-        <v>1.044336818551302</v>
+        <v>1.039968556099254</v>
       </c>
       <c r="L7">
-        <v>1.033690899069269</v>
+        <v>1.022154896259262</v>
       </c>
       <c r="M7">
-        <v>1.055304422813343</v>
+        <v>1.047487559435835</v>
       </c>
       <c r="N7">
-        <v>1.037709616335333</v>
+        <v>1.027916351826305</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030378157503618</v>
+        <v>1.001081304512049</v>
       </c>
       <c r="D8">
-        <v>1.040828713748269</v>
+        <v>1.025381585927081</v>
       </c>
       <c r="E8">
-        <v>1.030081473759513</v>
+        <v>1.007259082996576</v>
       </c>
       <c r="F8">
-        <v>1.051619108681457</v>
+        <v>1.032171613509071</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037425099551362</v>
+        <v>1.050536355919075</v>
       </c>
       <c r="J8">
-        <v>1.035400405175381</v>
+        <v>1.022658186855279</v>
       </c>
       <c r="K8">
-        <v>1.043546805838569</v>
+        <v>1.036228382212099</v>
       </c>
       <c r="L8">
-        <v>1.032829633205019</v>
+        <v>1.018341615065389</v>
       </c>
       <c r="M8">
-        <v>1.054307682121452</v>
+        <v>1.042932744197073</v>
       </c>
       <c r="N8">
-        <v>1.036870792512817</v>
+        <v>1.024110478781147</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028072486403439</v>
+        <v>0.9896906655945636</v>
       </c>
       <c r="D9">
-        <v>1.0389957306675</v>
+        <v>1.01643613960512</v>
       </c>
       <c r="E9">
-        <v>1.028123211270656</v>
+        <v>0.9981707621178301</v>
       </c>
       <c r="F9">
-        <v>1.049428136715575</v>
+        <v>1.02173710290639</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03689402392522</v>
+        <v>1.046849424083363</v>
       </c>
       <c r="J9">
-        <v>1.033921884738602</v>
+        <v>1.015612800182143</v>
       </c>
       <c r="K9">
-        <v>1.042148566855685</v>
+        <v>1.02926806380955</v>
       </c>
       <c r="L9">
-        <v>1.03131170007743</v>
+        <v>1.011293587312526</v>
       </c>
       <c r="M9">
-        <v>1.052547523539786</v>
+        <v>1.034487087336249</v>
       </c>
       <c r="N9">
-        <v>1.035390172407429</v>
+        <v>1.017055086850818</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026536705988622</v>
+        <v>0.9816985732012489</v>
       </c>
       <c r="D10">
-        <v>1.037773055172883</v>
+        <v>1.010167645327195</v>
       </c>
       <c r="E10">
-        <v>1.026820886953248</v>
+        <v>0.9918326789145634</v>
       </c>
       <c r="F10">
-        <v>1.047968226764966</v>
+        <v>1.014433196403352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036531214020423</v>
+        <v>1.044191005573029</v>
       </c>
       <c r="J10">
-        <v>1.032934562289053</v>
+        <v>1.010657608653124</v>
       </c>
       <c r="K10">
-        <v>1.041212330768326</v>
+        <v>1.024355714836706</v>
       </c>
       <c r="L10">
-        <v>1.030299605216342</v>
+        <v>1.006350979445651</v>
       </c>
       <c r="M10">
-        <v>1.051371602279449</v>
+        <v>1.028546654866648</v>
       </c>
       <c r="N10">
-        <v>1.034401447846754</v>
+        <v>1.01209285838146</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025872017280631</v>
+        <v>0.9781332222259735</v>
       </c>
       <c r="D11">
-        <v>1.037243473066521</v>
+        <v>1.007374137348281</v>
       </c>
       <c r="E11">
-        <v>1.026257733179794</v>
+        <v>0.9890152224764208</v>
       </c>
       <c r="F11">
-        <v>1.0473362570096</v>
+        <v>1.011179936275508</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036372042058834</v>
+        <v>1.042988912846433</v>
       </c>
       <c r="J11">
-        <v>1.032506659199191</v>
+        <v>1.008444853109184</v>
       </c>
       <c r="K11">
-        <v>1.040805972973202</v>
+        <v>1.022158315352816</v>
       </c>
       <c r="L11">
-        <v>1.029861332705592</v>
+        <v>1.004147312010153</v>
       </c>
       <c r="M11">
-        <v>1.050861837726298</v>
+        <v>1.025894050895859</v>
       </c>
       <c r="N11">
-        <v>1.033972937085423</v>
+        <v>1.00987696047084</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025625169822423</v>
+        <v>0.9767922121416276</v>
       </c>
       <c r="D12">
-        <v>1.03704674029037</v>
+        <v>1.006323969015797</v>
       </c>
       <c r="E12">
-        <v>1.026048668068286</v>
+        <v>0.9879570969886953</v>
       </c>
       <c r="F12">
-        <v>1.047101543399691</v>
+        <v>1.009957162897971</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036312607535184</v>
+        <v>1.042534425943912</v>
       </c>
       <c r="J12">
-        <v>1.03234765953171</v>
+        <v>1.007612311332805</v>
       </c>
       <c r="K12">
-        <v>1.040654889873658</v>
+        <v>1.021331006445389</v>
       </c>
       <c r="L12">
-        <v>1.029698535118273</v>
+        <v>1.003318715066681</v>
       </c>
       <c r="M12">
-        <v>1.05067240172211</v>
+        <v>1.024896053739137</v>
       </c>
       <c r="N12">
-        <v>1.033813711620177</v>
+        <v>1.009043236389645</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025678117284858</v>
+        <v>0.9770806341632026</v>
       </c>
       <c r="D13">
-        <v>1.037088941136947</v>
+        <v>1.006549811634776</v>
       </c>
       <c r="E13">
-        <v>1.026093508013479</v>
+        <v>0.9881846038242429</v>
       </c>
       <c r="F13">
-        <v>1.047151888979661</v>
+        <v>1.010220114808369</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036325370507005</v>
+        <v>1.042632281214953</v>
       </c>
       <c r="J13">
-        <v>1.032381768088678</v>
+        <v>1.007791384346427</v>
       </c>
       <c r="K13">
-        <v>1.040687304203598</v>
+        <v>1.021508978152305</v>
       </c>
       <c r="L13">
-        <v>1.02973345590859</v>
+        <v>1.003496915766531</v>
       </c>
       <c r="M13">
-        <v>1.050713040300639</v>
+        <v>1.025110712919708</v>
       </c>
       <c r="N13">
-        <v>1.033847868615208</v>
+        <v>1.009222563707486</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025851611821552</v>
+        <v>0.9780227199125604</v>
       </c>
       <c r="D14">
-        <v>1.037227211525294</v>
+        <v>1.007287589654368</v>
       </c>
       <c r="E14">
-        <v>1.02624044943567</v>
+        <v>0.9889279978428827</v>
       </c>
       <c r="F14">
-        <v>1.047316854930937</v>
+        <v>1.011079159093795</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03636713552363</v>
+        <v>1.042951509444826</v>
       </c>
       <c r="J14">
-        <v>1.032493517404837</v>
+        <v>1.008376254982523</v>
       </c>
       <c r="K14">
-        <v>1.040793487324802</v>
+        <v>1.022090159330745</v>
       </c>
       <c r="L14">
-        <v>1.02984787587716</v>
+        <v>1.004079028218815</v>
       </c>
       <c r="M14">
-        <v>1.050846180652077</v>
+        <v>1.025811819057382</v>
       </c>
       <c r="N14">
-        <v>1.033959776628214</v>
+        <v>1.009808264926972</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025958513837826</v>
+        <v>0.9786009302296182</v>
       </c>
       <c r="D15">
-        <v>1.037312401535394</v>
+        <v>1.007740478243941</v>
       </c>
       <c r="E15">
-        <v>1.026331000197566</v>
+        <v>0.9893844712678254</v>
       </c>
       <c r="F15">
-        <v>1.04741849964847</v>
+        <v>1.011606517310083</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036392827135867</v>
+        <v>1.043147129695918</v>
       </c>
       <c r="J15">
-        <v>1.032562362256911</v>
+        <v>1.00873518818774</v>
       </c>
       <c r="K15">
-        <v>1.040858891227165</v>
+        <v>1.022446757204867</v>
       </c>
       <c r="L15">
-        <v>1.029918373330423</v>
+        <v>1.004436338129699</v>
       </c>
       <c r="M15">
-        <v>1.050928201345792</v>
+        <v>1.0262420909563</v>
       </c>
       <c r="N15">
-        <v>1.034028719247874</v>
+        <v>1.01016770785851</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026580825837243</v>
+        <v>0.9819329082588085</v>
       </c>
       <c r="D16">
-        <v>1.037808198598585</v>
+        <v>1.010351319272592</v>
       </c>
       <c r="E16">
-        <v>1.026858277730478</v>
+        <v>0.9920180733070051</v>
       </c>
       <c r="F16">
-        <v>1.048010172405945</v>
+        <v>1.014647132264205</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036541734105156</v>
+        <v>1.044269683895523</v>
       </c>
       <c r="J16">
-        <v>1.032962952725614</v>
+        <v>1.010803002432247</v>
       </c>
       <c r="K16">
-        <v>1.041239279202746</v>
+        <v>1.024500022911813</v>
       </c>
       <c r="L16">
-        <v>1.030328691369772</v>
+        <v>1.006495848615179</v>
       </c>
       <c r="M16">
-        <v>1.05140542146332</v>
+        <v>1.028720953759488</v>
       </c>
       <c r="N16">
-        <v>1.034429878600991</v>
+        <v>1.012238458636426</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026971270081556</v>
+        <v>0.9839942869760732</v>
       </c>
       <c r="D17">
-        <v>1.038119158037199</v>
+        <v>1.011967390588258</v>
       </c>
       <c r="E17">
-        <v>1.027189229444569</v>
+        <v>0.9936500839714513</v>
       </c>
       <c r="F17">
-        <v>1.048381362174042</v>
+        <v>1.016529653431458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036634584867682</v>
+        <v>1.044959967210976</v>
       </c>
       <c r="J17">
-        <v>1.03321412962092</v>
+        <v>1.012081746898042</v>
       </c>
       <c r="K17">
-        <v>1.041477629645745</v>
+        <v>1.025768792088377</v>
       </c>
       <c r="L17">
-        <v>1.030586065801348</v>
+        <v>1.007770373859036</v>
       </c>
       <c r="M17">
-        <v>1.051704613560073</v>
+        <v>1.030253935047938</v>
       </c>
       <c r="N17">
-        <v>1.034681412196299</v>
+        <v>1.013519019066036</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027199039913416</v>
+        <v>0.985186617784292</v>
       </c>
       <c r="D18">
-        <v>1.038300520343947</v>
+        <v>1.012902420428521</v>
       </c>
       <c r="E18">
-        <v>1.027382341369187</v>
+        <v>0.9945950069632927</v>
       </c>
       <c r="F18">
-        <v>1.048597888277313</v>
+        <v>1.017619006311423</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036688543113353</v>
+        <v>1.045357701588167</v>
       </c>
       <c r="J18">
-        <v>1.033360599576804</v>
+        <v>1.012821178948084</v>
       </c>
       <c r="K18">
-        <v>1.041616562618429</v>
+        <v>1.026502096791306</v>
       </c>
       <c r="L18">
-        <v>1.03073618513423</v>
+        <v>1.008507694436826</v>
       </c>
       <c r="M18">
-        <v>1.051879070953206</v>
+        <v>1.031140388631185</v>
       </c>
       <c r="N18">
-        <v>1.034828090156321</v>
+        <v>1.014259501194403</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027276708672073</v>
+        <v>0.9855914969863662</v>
       </c>
       <c r="D19">
-        <v>1.038362357617618</v>
+        <v>1.013219971350771</v>
       </c>
       <c r="E19">
-        <v>1.027448199965497</v>
+        <v>0.9949160320160717</v>
       </c>
       <c r="F19">
-        <v>1.048671721004869</v>
+        <v>1.017988995516249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03670690753769</v>
+        <v>1.045492497495513</v>
       </c>
       <c r="J19">
-        <v>1.033410535706109</v>
+        <v>1.013072229957336</v>
       </c>
       <c r="K19">
-        <v>1.041663919408027</v>
+        <v>1.026751005876992</v>
       </c>
       <c r="L19">
-        <v>1.030787371449184</v>
+        <v>1.008758084128126</v>
       </c>
       <c r="M19">
-        <v>1.051938546842257</v>
+        <v>1.031441357262526</v>
       </c>
       <c r="N19">
-        <v>1.034878097200657</v>
+        <v>1.014510908724884</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026929375971931</v>
+        <v>0.9837741652842785</v>
       </c>
       <c r="D20">
-        <v>1.038085796584317</v>
+        <v>1.011794791687487</v>
       </c>
       <c r="E20">
-        <v>1.027153713860173</v>
+        <v>0.9934757132174874</v>
       </c>
       <c r="F20">
-        <v>1.048341535219213</v>
+        <v>1.016328580827295</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036624643546624</v>
+        <v>1.044886414997301</v>
       </c>
       <c r="J20">
-        <v>1.033187184568726</v>
+        <v>1.011945219409835</v>
       </c>
       <c r="K20">
-        <v>1.041452066493274</v>
+        <v>1.025633366746743</v>
       </c>
       <c r="L20">
-        <v>1.030558452247343</v>
+        <v>1.007634262744855</v>
       </c>
       <c r="M20">
-        <v>1.051672518896467</v>
+        <v>1.030090262386622</v>
       </c>
       <c r="N20">
-        <v>1.03465442887904</v>
+        <v>1.013382297693136</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025800520690476</v>
+        <v>0.9777457675585521</v>
       </c>
       <c r="D21">
-        <v>1.037186494952892</v>
+        <v>1.007070683779403</v>
       </c>
       <c r="E21">
-        <v>1.026197175659861</v>
+        <v>0.9887094122143707</v>
       </c>
       <c r="F21">
-        <v>1.047268275787012</v>
+        <v>1.010826594908218</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03635484534784</v>
+        <v>1.04285772753307</v>
       </c>
       <c r="J21">
-        <v>1.032460611596607</v>
+        <v>1.008204323032571</v>
       </c>
       <c r="K21">
-        <v>1.040762223003828</v>
+        <v>1.021919326760576</v>
       </c>
       <c r="L21">
-        <v>1.029814182144098</v>
+        <v>1.003907892585766</v>
       </c>
       <c r="M21">
-        <v>1.050806976525223</v>
+        <v>1.025605716696342</v>
       </c>
       <c r="N21">
-        <v>1.033926824089961</v>
+        <v>1.009636088813929</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025091039673188</v>
+        <v>0.9738584460817183</v>
       </c>
       <c r="D22">
-        <v>1.036620939187171</v>
+        <v>1.004027576266818</v>
       </c>
       <c r="E22">
-        <v>1.025596429516652</v>
+        <v>0.9856452104624694</v>
       </c>
       <c r="F22">
-        <v>1.046593637989802</v>
+        <v>1.007283736562509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0361834135598</v>
+        <v>1.041535889064435</v>
       </c>
       <c r="J22">
-        <v>1.032003454473855</v>
+        <v>1.005790496880026</v>
       </c>
       <c r="K22">
-        <v>1.040327659846969</v>
+        <v>1.019519666104156</v>
       </c>
       <c r="L22">
-        <v>1.02934620912286</v>
+        <v>1.001506504859565</v>
       </c>
       <c r="M22">
-        <v>1.050262274166825</v>
+        <v>1.022712269100727</v>
       </c>
       <c r="N22">
-        <v>1.033469017751658</v>
+        <v>1.007218834751378</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025467122808535</v>
+        <v>0.9759287214849358</v>
       </c>
       <c r="D23">
-        <v>1.036920762918247</v>
+        <v>1.005647917115784</v>
       </c>
       <c r="E23">
-        <v>1.025914832851427</v>
+        <v>0.9872762153741802</v>
       </c>
       <c r="F23">
-        <v>1.0469512604937</v>
+        <v>1.009170057772013</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036274463162343</v>
+        <v>1.04224112360623</v>
       </c>
       <c r="J23">
-        <v>1.032245833378226</v>
+        <v>1.007076158952088</v>
       </c>
       <c r="K23">
-        <v>1.040558108546093</v>
+        <v>1.020798073357921</v>
       </c>
       <c r="L23">
-        <v>1.029594292234682</v>
+        <v>1.002785251799287</v>
       </c>
       <c r="M23">
-        <v>1.05055107845821</v>
+        <v>1.024253361651972</v>
       </c>
       <c r="N23">
-        <v>1.033711740861875</v>
+        <v>1.008506322611049</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026948306023024</v>
+        <v>0.9838736597482357</v>
       </c>
       <c r="D24">
-        <v>1.03810087123546</v>
+        <v>1.011872805132731</v>
       </c>
       <c r="E24">
-        <v>1.027169761597296</v>
+        <v>0.9935545254458511</v>
       </c>
       <c r="F24">
-        <v>1.04835953125205</v>
+        <v>1.016419463681437</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036629136219763</v>
+        <v>1.044919665184091</v>
       </c>
       <c r="J24">
-        <v>1.033199359993152</v>
+        <v>1.01200693016068</v>
       </c>
       <c r="K24">
-        <v>1.041463617668294</v>
+        <v>1.025694580440335</v>
       </c>
       <c r="L24">
-        <v>1.030570929632509</v>
+        <v>1.007695784275753</v>
       </c>
       <c r="M24">
-        <v>1.051687021267405</v>
+        <v>1.030164242792598</v>
       </c>
       <c r="N24">
-        <v>1.034666621593966</v>
+        <v>1.013444096080325</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028668324538738</v>
+        <v>0.9927023849890193</v>
       </c>
       <c r="D25">
-        <v>1.039469726377461</v>
+        <v>1.018800298518109</v>
       </c>
       <c r="E25">
-        <v>1.028628912114196</v>
+        <v>1.000567365196701</v>
       </c>
       <c r="F25">
-        <v>1.049994429885613</v>
+        <v>1.024493340079771</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037032865939394</v>
+        <v>1.047836830391708</v>
       </c>
       <c r="J25">
-        <v>1.034304410065386</v>
+        <v>1.017477863829033</v>
       </c>
       <c r="K25">
-        <v>1.042510767239823</v>
+        <v>1.031113609531445</v>
       </c>
       <c r="L25">
-        <v>1.031704149954891</v>
+        <v>1.01315687993149</v>
       </c>
       <c r="M25">
-        <v>1.053003008260767</v>
+        <v>1.036722965176103</v>
       </c>
       <c r="N25">
-        <v>1.035773240964053</v>
+        <v>1.018922799102012</v>
       </c>
     </row>
   </sheetData>
